--- a/XLSX/VVK_EIR_s3_NSIK_15_ŠG.xlsx
+++ b/XLSX/VVK_EIR_s3_NSIK_15_ŠG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="150">
   <si>
     <t xml:space="preserve">Komponento pavadinimas pagal NSIK klasifikatorių</t>
   </si>
@@ -64,29 +64,12 @@
     <t xml:space="preserve">Statinio kodas - ClassificationSystem.NSIK E arba „NSIK E“ klasifikatorius</t>
   </si>
   <si>
-    <t xml:space="preserve">Esama situacija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP modeliai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP modeliai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDP modeliai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavadinimas arba 
+    <t xml:space="preserve">TP modeliai 
+LOD, LoG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributas arba 
 Savybių rinkinys.Pavadinimas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuoroda</t>
   </si>
   <si>
     <t xml:space="preserve">Atributo ar savybės aprašymas</t>
@@ -131,6 +114,9 @@
 IfcPipeSegmentType</t>
   </si>
   <si>
+    <t xml:space="preserve">LoG 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ŠG</t>
   </si>
   <si>
@@ -143,31 +129,31 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
+    <t xml:space="preserve">Pset_ConstructionAdministration.SpecificationSectionNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reference number to an external contract technical specification section describing either (a) minimum performance requirements of a given IfcProductType/[[IfcProduct]] or (b) a preselection for a specific IfcProductType/[[IfcProduct]] made for this project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_ElementComponentCommon.Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Status]] of the element, predominately used in renovation or retrofitting projects. The status can be assigned to as 'New' - element designed as new addition, 'Existing' - element exists and remains, 'Demolish' - element existed but is to be demolished, 'Temporary' - element will exists only temporary (like a temporary support structure).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_QuantityTakeOff.Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [[Diameter]] of the object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Defines the allowed values for selection of the flow meter operation type.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_ConstructionAdministration.SpecificationSectionNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A reference number to an external contract technical specification section describing either (a) minimum performance requirements of a given IfcProductType/[[IfcProduct]] or (b) a preselection for a specific IfcProductType/[[IfcProduct]] made for this project.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_ElementComponentCommon.Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[Status]] of the element, predominately used in renovation or retrofitting projects. The status can be assigned to as 'New' - element designed as new addition, 'Existing' - element exists and remains, 'Demolish' - element existed but is to be demolished, 'Temporary' - element will exists only temporary (like a temporary support structure).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_QuantityTakeOff.Diameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The [[Diameter]] of the object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real</t>
   </si>
   <si>
     <t xml:space="preserve">Išardoma jungtis</t>
@@ -235,11 +221,11 @@
   <si>
     <t xml:space="preserve">vakuuminis siurblys, 
 išcentrinis siurblys, 
-Ašinis siurblys, 
+turbinos sparnuotė, 
 cirkuliacinis siurblys, 
 Cirkuliacinis siurblys, 
-turbinos sparnuotė, 
 Rotacinis siurblys, 
+Ašinis siurblys, 
 radialinis siurblys</t>
   </si>
   <si>
@@ -248,46 +234,46 @@
 IfcFlowControllerTypeEnum</t>
   </si>
   <si>
+    <t xml:space="preserve">Pset_ElectricalDeviceCommon.NominalPowerConsumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal total power consumption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_QuantityTakeOff.Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characteristic height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_QuantityTakeOff.Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_QuantityTakeOff.Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Volume]] of the element.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_QuantityTakeOff.VolumetricFlowRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The volumetric flow rate of the fluid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_QuantityTakeOff.Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The width of the object. Only given, if the object has constant thickness (prismatic).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag</t>
   </si>
   <si>
     <t xml:space="preserve">The tag (or label) identifier at the particular instance of a product, e.g. the serial number, or the position number. It is the identifier at the occurrence level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_QuantityTakeOff.Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characteristic height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_QuantityTakeOff.Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The width of the object. Only given, if the object has constant thickness (prismatic).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_QuantityTakeOff.Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The length of the object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_QuantityTakeOff.Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[Volume]] of the element.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_ElectricalDeviceCommon.NominalPowerConsumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nominal total power consumption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_QuantityTakeOff.VolumetricFlowRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The volumetric flow rate of the fluid.</t>
   </si>
   <si>
     <t xml:space="preserve">Kompresorinė šaldymo mašina</t>
@@ -415,9 +401,9 @@
     <t xml:space="preserve">Talpa, pripildyta skysčiu, kuriam suteikta šiluminė energija vėliau gali būti perduodama kitiems objektams.</t>
   </si>
   <si>
-    <t xml:space="preserve">Šilumos akumuliavimo skysčiuose talpykla, 
-akumuliacinė šiluminė talpa, 
-Akumuliacinė talpa</t>
+    <t xml:space="preserve">akumuliacinė šiluminė talpa, 
+Akumuliacinė talpa, 
+Šilumos akumuliavimo skysčiuose talpykla</t>
   </si>
   <si>
     <t xml:space="preserve">%CPA2010</t>
@@ -557,13 +543,13 @@
     <t xml:space="preserve">Vieno sensoriaus absoliučiojo slėgio jutimo komponentas su skaliariniu išėjimu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Absoliučiojo slėgio daviklis, 
+    <t xml:space="preserve">absoliučiojo slėgio jutiklis, 
+slėgio matavimo įrenginys, 
+slėgio keitiklis, 
 Slėgio indikatorius, 
-slėgio jutiklis, 
+Absoliučiojo slėgio daviklis, 
 manometras, 
-slėgio keitiklis, 
-slėgio matavimo įrenginys, 
-absoliučiojo slėgio jutiklis</t>
+slėgio jutiklis</t>
   </si>
   <si>
     <t xml:space="preserve">BPP</t>
@@ -776,13 +762,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -807,6 +793,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1098,17 +1088,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD249"/>
+  <dimension ref="A1:T249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="12" ySplit="3" topLeftCell="M121" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="AD4" activeCellId="0" sqref="AD4"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10"/>
@@ -1117,19 +1107,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="12" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="15" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="45.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="0" width="15"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="26" style="0" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,20 +1152,12 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="AD1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="131.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1195,16 +1174,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1227,84 +1200,59 @@
         <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="N3" s="2" t="n">
         <v>300</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1312,18 +1260,8 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="8" t="s">
-        <v>35</v>
+      <c r="T4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1339,23 +1277,18 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1368,23 +1301,18 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1397,23 +1325,18 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1426,23 +1349,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1455,21 +1373,16 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="8"/>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="4"/>
@@ -1484,42 +1397,39 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="AD10" s="8"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1527,18 +1437,8 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="8" t="s">
-        <v>35</v>
+      <c r="T11" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1554,21 +1454,18 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="R12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1581,21 +1478,18 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="R13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1608,21 +1502,18 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="R14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1635,21 +1526,18 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="R15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1662,19 +1550,16 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="R16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16" s="8"/>
+      <c r="M16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4"/>
@@ -1689,40 +1574,39 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="AD17" s="8"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -1730,18 +1614,8 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="8" t="s">
-        <v>35</v>
+      <c r="T18" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1757,23 +1631,18 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1786,23 +1655,18 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1815,23 +1679,18 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1844,23 +1703,18 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1873,21 +1727,16 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD23" s="8"/>
+      <c r="M23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="4"/>
@@ -1902,42 +1751,39 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="AD24" s="8"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -1945,18 +1791,8 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="8" t="s">
-        <v>35</v>
+      <c r="T25" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1972,21 +1808,18 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="R26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1999,21 +1832,18 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="R27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2026,19 +1856,16 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="R28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD28" s="8"/>
+      <c r="M28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4"/>
@@ -2053,21 +1880,18 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="R29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2080,19 +1904,16 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="R30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V30" s="10" t="s">
+      <c r="M30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" s="8"/>
+      <c r="N30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="4"/>
@@ -2107,21 +1928,18 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="R31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2134,19 +1952,16 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="R32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD32" s="8"/>
+      <c r="M32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="4"/>
@@ -2161,19 +1976,16 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="R33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD33" s="8"/>
+      <c r="M33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="4"/>
@@ -2188,21 +2000,18 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="R34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD34" s="8"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2215,21 +2024,18 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="R35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2242,21 +2048,18 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="R36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T36" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2269,19 +2072,16 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="R37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T37" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="V37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD37" s="8"/>
+      <c r="M37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="4"/>
@@ -2296,40 +2096,39 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="AD38" s="8"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -2337,18 +2136,8 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="8" t="s">
-        <v>35</v>
+      <c r="T39" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2364,21 +2153,18 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="R40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2391,21 +2177,18 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="R41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD41" s="8"/>
-    </row>
-    <row r="42" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2418,19 +2201,16 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="R42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD42" s="8"/>
+      <c r="M42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="4"/>
@@ -2445,21 +2225,18 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="R43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2472,19 +2249,16 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="R44" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T44" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V44" s="10" t="s">
+      <c r="M44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD44" s="8"/>
+      <c r="N44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="4"/>
@@ -2499,21 +2273,18 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="R45" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T45" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2526,19 +2297,16 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="R46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T46" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD46" s="8"/>
+      <c r="M46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="4"/>
@@ -2553,21 +2321,18 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="R47" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V47" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2580,21 +2345,18 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="R48" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T48" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V48" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD48" s="8"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2607,21 +2369,18 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="R49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD49" s="8"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2634,19 +2393,16 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="R50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD50" s="8"/>
+      <c r="M50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="4"/>
@@ -2661,40 +2417,39 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="AD51" s="8"/>
+      <c r="T51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -2702,18 +2457,8 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="8" t="s">
-        <v>35</v>
+      <c r="T52" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2729,21 +2474,18 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="R53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T53" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V53" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD53" s="8"/>
-    </row>
-    <row r="54" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2756,21 +2498,18 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="R54" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V54" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD54" s="8"/>
-    </row>
-    <row r="55" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M54" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2783,21 +2522,18 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="R55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T55" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V55" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD55" s="8"/>
-    </row>
-    <row r="56" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M55" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2810,21 +2546,18 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="R56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V56" s="10" t="s">
+      <c r="M56" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD56" s="8"/>
-    </row>
-    <row r="57" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2837,19 +2570,16 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="R57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T57" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD57" s="8"/>
+      <c r="M57" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="4"/>
@@ -2864,21 +2594,18 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="R58" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T58" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V58" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2891,21 +2618,18 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="R59" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T59" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V59" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M59" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2918,21 +2642,18 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="R60" s="9" t="s">
+      <c r="M60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="P60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2945,21 +2666,18 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="R61" s="9" t="s">
+      <c r="M61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N61" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="T61" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V61" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="P61" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2972,19 +2690,16 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="R62" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T62" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V62" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD62" s="8"/>
+      <c r="M62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="4"/>
@@ -2999,40 +2714,39 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="AD63" s="8"/>
+      <c r="T63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+      <c r="L64" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
@@ -3040,18 +2754,8 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="8" t="s">
-        <v>35</v>
+      <c r="T64" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -3067,21 +2771,18 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="R65" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T65" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V65" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD65" s="8"/>
-    </row>
-    <row r="66" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T65" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3094,21 +2795,18 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="R66" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD66" s="8"/>
-    </row>
-    <row r="67" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M66" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3121,19 +2819,16 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="R67" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T67" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V67" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD67" s="8"/>
+      <c r="M67" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="4"/>
@@ -3148,21 +2843,18 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="R68" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V68" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD68" s="8"/>
-    </row>
-    <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M68" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3175,19 +2867,16 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="R69" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T69" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V69" s="10" t="s">
+      <c r="M69" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD69" s="8"/>
+      <c r="N69" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="4"/>
@@ -3202,21 +2891,18 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="R70" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T70" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V70" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M70" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3229,19 +2915,16 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="R71" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T71" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V71" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD71" s="8"/>
+      <c r="M71" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="4"/>
@@ -3256,21 +2939,18 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="R72" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V72" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD72" s="8"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M72" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3283,21 +2963,18 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="R73" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T73" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V73" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M73" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3310,21 +2987,18 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="R74" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T74" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V74" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD74" s="8"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M74" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3337,19 +3011,16 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="R75" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T75" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V75" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD75" s="8"/>
+      <c r="M75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="4"/>
@@ -3364,34 +3035,33 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="AD76" s="8"/>
+      <c r="T76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A77" s="11"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="L77" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -3399,22 +3069,12 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="8" t="s">
-        <v>35</v>
+      <c r="T77" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A78" s="11"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3425,22 +3085,20 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="R78" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T78" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V78" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A79" s="11"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A79" s="12"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3451,22 +3109,20 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="R79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V79" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A80" s="11"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A80" s="12"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3477,22 +3133,20 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="R80" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T80" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V80" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD80" s="8"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="11"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3503,22 +3157,20 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="R81" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T81" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V81" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A82" s="11"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T81" s="9"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A82" s="12"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3529,22 +3181,20 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="R82" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T82" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V82" s="10" t="s">
+      <c r="L82" s="5"/>
+      <c r="M82" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD82" s="8"/>
+      <c r="N82" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A83" s="11"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -3555,22 +3205,20 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="R83" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T83" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V83" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A84" s="11"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T83" s="9"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A84" s="12"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3581,22 +3229,20 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="R84" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T84" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V84" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD84" s="8"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A85" s="11"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3607,22 +3253,20 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="R85" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T85" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V85" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD85" s="8"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A86" s="11"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3633,22 +3277,20 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="R86" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T86" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V86" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="11"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A87" s="12"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3659,22 +3301,20 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="R87" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T87" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V87" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A88" s="11"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T87" s="9"/>
+    </row>
+    <row r="88" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A88" s="12"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -3685,22 +3325,20 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="R88" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T88" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V88" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="11"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A89" s="12"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3711,22 +3349,20 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="R89" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T89" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="V89" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD89" s="8"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P89" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A90" s="11"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3737,40 +3373,40 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="AD90" s="8"/>
+      <c r="L90" s="5"/>
+      <c r="T90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
+      <c r="L91" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
@@ -3778,18 +3414,8 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-      <c r="AA91" s="6"/>
-      <c r="AB91" s="6"/>
-      <c r="AC91" s="6"/>
-      <c r="AD91" s="8" t="s">
-        <v>35</v>
+      <c r="T91" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -3804,21 +3430,19 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="R92" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T92" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V92" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L92" s="5"/>
+      <c r="M92" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3830,21 +3454,19 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="R93" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T93" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V93" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L93" s="5"/>
+      <c r="M93" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P93" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3856,21 +3478,19 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="R94" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T94" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V94" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L94" s="5"/>
+      <c r="M94" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3882,21 +3502,19 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="R95" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T95" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V95" s="10" t="s">
+      <c r="L95" s="5"/>
+      <c r="M95" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N95" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T95" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3908,19 +3526,17 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="R96" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T96" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V96" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD96" s="8"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="4"/>
@@ -3934,19 +3550,17 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="R97" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T97" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V97" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD97" s="8"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4"/>
@@ -3960,21 +3574,19 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="R98" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T98" s="10" t="s">
+      <c r="L98" s="5"/>
+      <c r="M98" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V98" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N98" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3986,21 +3598,19 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="R99" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T99" s="10" t="s">
+      <c r="L99" s="5"/>
+      <c r="M99" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V99" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N99" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4012,19 +3622,17 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="R100" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T100" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V100" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD100" s="8"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="4"/>
@@ -4038,40 +3646,40 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="AD101" s="8"/>
+      <c r="L101" s="5"/>
+      <c r="T101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
+      <c r="L102" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
@@ -4079,18 +3687,8 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="8" t="s">
-        <v>35</v>
+      <c r="T102" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4105,21 +3703,19 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="R103" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T103" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V103" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L103" s="5"/>
+      <c r="M103" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4131,21 +3727,19 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="R104" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T104" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V104" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L104" s="5"/>
+      <c r="M104" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4157,21 +3751,19 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="R105" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T105" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V105" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L105" s="5"/>
+      <c r="M105" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P105" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4183,21 +3775,19 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="R106" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T106" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V106" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L106" s="5"/>
+      <c r="M106" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P106" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4209,19 +3799,17 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="R107" s="9" t="s">
+      <c r="L107" s="5"/>
+      <c r="M107" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N107" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T107" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V107" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD107" s="8"/>
+      <c r="P107" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4"/>
@@ -4235,21 +3823,19 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="R108" s="9" t="s">
+      <c r="L108" s="5"/>
+      <c r="M108" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N108" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="T108" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V108" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="P108" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T108" s="9"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4261,21 +3847,19 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="R109" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T109" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V109" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L109" s="5"/>
+      <c r="M109" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T109" s="9"/>
+    </row>
+    <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4287,21 +3871,19 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="R110" s="9" t="s">
+      <c r="L110" s="5"/>
+      <c r="M110" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N110" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T110" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V110" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="P110" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T110" s="9"/>
+    </row>
+    <row r="111" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4313,21 +3895,19 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="R111" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="T111" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V111" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L111" s="5"/>
+      <c r="M111" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P111" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T111" s="9"/>
+    </row>
+    <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4339,19 +3919,17 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="R112" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T112" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V112" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD112" s="8"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="4"/>
@@ -4365,40 +3943,40 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="AD113" s="8"/>
+      <c r="L113" s="5"/>
+      <c r="T113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
+      <c r="L114" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
@@ -4406,18 +3984,8 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="6"/>
-      <c r="W114" s="6"/>
-      <c r="X114" s="6"/>
-      <c r="Y114" s="6"/>
-      <c r="Z114" s="6"/>
-      <c r="AA114" s="6"/>
-      <c r="AB114" s="6"/>
-      <c r="AC114" s="6"/>
-      <c r="AD114" s="8" t="s">
-        <v>35</v>
+      <c r="T114" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4432,21 +4000,19 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="R115" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T115" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V115" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L115" s="5"/>
+      <c r="M115" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P115" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T115" s="9"/>
+    </row>
+    <row r="116" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4458,21 +4024,19 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="R116" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T116" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V116" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L116" s="5"/>
+      <c r="M116" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T116" s="9"/>
+    </row>
+    <row r="117" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4484,21 +4048,19 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="R117" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T117" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V117" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L117" s="5"/>
+      <c r="M117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P117" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T117" s="9"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4510,21 +4072,19 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="R118" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T118" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V118" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L118" s="5"/>
+      <c r="M118" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T118" s="9"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4536,19 +4096,17 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="R119" s="9" t="s">
+      <c r="L119" s="5"/>
+      <c r="M119" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N119" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T119" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V119" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD119" s="8"/>
+      <c r="P119" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="4"/>
@@ -4562,21 +4120,19 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="R120" s="9" t="s">
+      <c r="L120" s="5"/>
+      <c r="M120" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N120" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="T120" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V120" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="P120" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T120" s="9"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4588,21 +4144,19 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="R121" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T121" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V121" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L121" s="5"/>
+      <c r="M121" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T121" s="9"/>
+    </row>
+    <row r="122" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4614,21 +4168,19 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="R122" s="9" t="s">
+      <c r="L122" s="5"/>
+      <c r="M122" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N122" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T122" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V122" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="P122" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T122" s="9"/>
+    </row>
+    <row r="123" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4640,21 +4192,19 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="R123" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="T123" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V123" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L123" s="5"/>
+      <c r="M123" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T123" s="9"/>
+    </row>
+    <row r="124" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4666,19 +4216,17 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="R124" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T124" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V124" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD124" s="8"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P124" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="4"/>
@@ -4692,34 +4240,34 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="AD125" s="8"/>
+      <c r="L125" s="5"/>
+      <c r="T125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A126" s="11"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
+      <c r="L126" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
@@ -4727,22 +4275,12 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="6"/>
-      <c r="V126" s="6"/>
-      <c r="W126" s="6"/>
-      <c r="X126" s="6"/>
-      <c r="Y126" s="6"/>
-      <c r="Z126" s="6"/>
-      <c r="AA126" s="6"/>
-      <c r="AB126" s="6"/>
-      <c r="AC126" s="6"/>
-      <c r="AD126" s="8" t="s">
-        <v>35</v>
+      <c r="T126" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="11"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -4753,22 +4291,20 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="R127" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T127" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V127" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD127" s="8"/>
-    </row>
-    <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="11"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T127" s="9"/>
+    </row>
+    <row r="128" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A128" s="12"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -4779,22 +4315,20 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="R128" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T128" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V128" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD128" s="8"/>
-    </row>
-    <row r="129" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="11"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P128" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T128" s="9"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A129" s="12"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -4805,22 +4339,20 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="R129" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T129" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V129" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD129" s="8"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="11"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -4831,22 +4363,20 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="R130" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T130" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V130" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD130" s="8"/>
-    </row>
-    <row r="131" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="11"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P130" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T130" s="9"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A131" s="12"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4857,22 +4387,20 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="R131" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T131" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V131" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD131" s="8"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P131" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="11"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4883,22 +4411,20 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="R132" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T132" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V132" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD132" s="8"/>
-    </row>
-    <row r="133" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="11"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P132" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T132" s="9"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A133" s="12"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4909,22 +4435,20 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="R133" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T133" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V133" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD133" s="8"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="11"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4935,22 +4459,20 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="R134" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T134" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V134" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="11"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P134" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T134" s="9"/>
+    </row>
+    <row r="135" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A135" s="12"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4961,22 +4483,20 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="R135" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="T135" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V135" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A136" s="11"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P135" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T135" s="9"/>
+    </row>
+    <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A136" s="12"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4987,22 +4507,20 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="R136" s="9" t="s">
+      <c r="L136" s="5"/>
+      <c r="M136" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N136" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="T136" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="V136" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="11"/>
+      <c r="P136" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T136" s="9"/>
+    </row>
+    <row r="137" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A137" s="12"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5013,22 +4531,20 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="R137" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T137" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V137" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD137" s="8"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P137" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="11"/>
+      <c r="A138" s="12"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -5039,40 +4555,40 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="AD138" s="8"/>
+      <c r="L138" s="5"/>
+      <c r="T138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
+      <c r="L139" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
@@ -5080,18 +4596,8 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="6"/>
-      <c r="W139" s="6"/>
-      <c r="X139" s="6"/>
-      <c r="Y139" s="6"/>
-      <c r="Z139" s="6"/>
-      <c r="AA139" s="6"/>
-      <c r="AB139" s="6"/>
-      <c r="AC139" s="6"/>
-      <c r="AD139" s="8" t="s">
-        <v>35</v>
+      <c r="T139" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -5106,21 +4612,19 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="R140" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T140" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V140" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD140" s="8"/>
-    </row>
-    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L140" s="5"/>
+      <c r="M140" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P140" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T140" s="9"/>
+    </row>
+    <row r="141" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5132,21 +4636,19 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="R141" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T141" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V141" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L141" s="5"/>
+      <c r="M141" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P141" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T141" s="9"/>
+    </row>
+    <row r="142" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5158,21 +4660,19 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-      <c r="R142" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T142" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V142" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L142" s="5"/>
+      <c r="M142" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P142" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T142" s="9"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5184,21 +4684,19 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="R143" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T143" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V143" s="10" t="s">
+      <c r="L143" s="5"/>
+      <c r="M143" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N143" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P143" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T143" s="9"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5210,19 +4708,17 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-      <c r="R144" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T144" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V144" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD144" s="8"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P144" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="4"/>
@@ -5236,19 +4732,17 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-      <c r="R145" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T145" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V145" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD145" s="8"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="4"/>
@@ -5262,21 +4756,19 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="R146" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T146" s="10" t="s">
+      <c r="L146" s="5"/>
+      <c r="M146" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V146" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N146" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P146" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T146" s="9"/>
+    </row>
+    <row r="147" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5288,21 +4780,19 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-      <c r="R147" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T147" s="10" t="s">
+      <c r="L147" s="5"/>
+      <c r="M147" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V147" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N147" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T147" s="9"/>
+    </row>
+    <row r="148" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5314,19 +4804,17 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="R148" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T148" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V148" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD148" s="8"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P148" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A149" s="4"/>
@@ -5340,40 +4828,40 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-      <c r="AD149" s="8"/>
+      <c r="L149" s="5"/>
+      <c r="T149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
+      <c r="L150" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="6"/>
@@ -5381,18 +4869,8 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-      <c r="U150" s="6"/>
-      <c r="V150" s="6"/>
-      <c r="W150" s="6"/>
-      <c r="X150" s="6"/>
-      <c r="Y150" s="6"/>
-      <c r="Z150" s="6"/>
-      <c r="AA150" s="6"/>
-      <c r="AB150" s="6"/>
-      <c r="AC150" s="6"/>
-      <c r="AD150" s="8" t="s">
-        <v>35</v>
+      <c r="T150" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -5407,21 +4885,19 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="R151" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T151" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V151" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L151" s="5"/>
+      <c r="M151" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P151" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T151" s="9"/>
+    </row>
+    <row r="152" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5433,21 +4909,19 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="R152" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T152" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V152" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L152" s="5"/>
+      <c r="M152" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P152" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T152" s="9"/>
+    </row>
+    <row r="153" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5459,21 +4933,19 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-      <c r="R153" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T153" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V153" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L153" s="5"/>
+      <c r="M153" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P153" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T153" s="9"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5485,21 +4957,19 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="R154" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T154" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V154" s="10" t="s">
+      <c r="L154" s="5"/>
+      <c r="M154" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N154" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P154" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T154" s="9"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5511,19 +4981,17 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="R155" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T155" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V155" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD155" s="8"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P155" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T155" s="9"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A156" s="4"/>
@@ -5537,19 +5005,17 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-      <c r="R156" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T156" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V156" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD156" s="8"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P156" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T156" s="9"/>
     </row>
     <row r="157" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A157" s="4"/>
@@ -5563,21 +5029,19 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="R157" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T157" s="10" t="s">
+      <c r="L157" s="5"/>
+      <c r="M157" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V157" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N157" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P157" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T157" s="9"/>
+    </row>
+    <row r="158" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5589,21 +5053,19 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="R158" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T158" s="10" t="s">
+      <c r="L158" s="5"/>
+      <c r="M158" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V158" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD158" s="8"/>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N158" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P158" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T158" s="9"/>
+    </row>
+    <row r="159" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5615,19 +5077,17 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="R159" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T159" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V159" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD159" s="8"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P159" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A160" s="4"/>
@@ -5641,38 +5101,38 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="AD160" s="8"/>
+      <c r="L160" s="5"/>
+      <c r="T160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
+      <c r="L161" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
@@ -5680,18 +5140,8 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
       <c r="S161" s="6"/>
-      <c r="T161" s="6"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="6"/>
-      <c r="W161" s="6"/>
-      <c r="X161" s="6"/>
-      <c r="Y161" s="6"/>
-      <c r="Z161" s="6"/>
-      <c r="AA161" s="6"/>
-      <c r="AB161" s="6"/>
-      <c r="AC161" s="6"/>
-      <c r="AD161" s="8" t="s">
-        <v>35</v>
+      <c r="T161" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -5706,21 +5156,19 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="R162" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T162" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V162" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L162" s="5"/>
+      <c r="M162" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P162" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T162" s="9"/>
+    </row>
+    <row r="163" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5732,21 +5180,19 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="R163" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T163" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V163" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L163" s="5"/>
+      <c r="M163" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P163" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T163" s="9"/>
+    </row>
+    <row r="164" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5758,21 +5204,19 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="R164" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T164" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V164" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L164" s="5"/>
+      <c r="M164" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N164" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P164" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T164" s="9"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5784,21 +5228,19 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="R165" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T165" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V165" s="10" t="s">
+      <c r="L165" s="5"/>
+      <c r="M165" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N165" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P165" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T165" s="9"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5810,19 +5252,17 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="6"/>
-      <c r="R166" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T166" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V166" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD166" s="8"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P166" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A167" s="4"/>
@@ -5836,19 +5276,17 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="6"/>
-      <c r="R167" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T167" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V167" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD167" s="8"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N167" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A168" s="4"/>
@@ -5862,21 +5300,19 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6"/>
-      <c r="R168" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T168" s="10" t="s">
+      <c r="L168" s="5"/>
+      <c r="M168" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V168" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N168" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P168" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T168" s="9"/>
+    </row>
+    <row r="169" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5888,21 +5324,19 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6"/>
-      <c r="R169" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T169" s="10" t="s">
+      <c r="L169" s="5"/>
+      <c r="M169" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V169" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N169" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P169" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T169" s="9"/>
+    </row>
+    <row r="170" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5914,19 +5348,17 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
-      <c r="O170" s="6"/>
-      <c r="R170" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T170" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V170" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD170" s="8"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N170" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P170" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A171" s="4"/>
@@ -5940,34 +5372,34 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6"/>
-      <c r="AD171" s="8"/>
+      <c r="L171" s="5"/>
+      <c r="T171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A172" s="11"/>
+      <c r="A172" s="12"/>
       <c r="B172" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
       <c r="J172" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
+      <c r="L172" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
       <c r="O172" s="6"/>
@@ -5975,22 +5407,12 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
       <c r="S172" s="6"/>
-      <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="6"/>
-      <c r="W172" s="6"/>
-      <c r="X172" s="6"/>
-      <c r="Y172" s="6"/>
-      <c r="Z172" s="6"/>
-      <c r="AA172" s="6"/>
-      <c r="AB172" s="6"/>
-      <c r="AC172" s="6"/>
-      <c r="AD172" s="8" t="s">
-        <v>35</v>
+      <c r="T172" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A173" s="11"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -6001,22 +5423,20 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
-      <c r="O173" s="6"/>
-      <c r="R173" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T173" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V173" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A174" s="11"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N173" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P173" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T173" s="9"/>
+    </row>
+    <row r="174" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A174" s="12"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -6027,22 +5447,20 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="R174" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T174" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V174" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A175" s="11"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P174" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T174" s="9"/>
+    </row>
+    <row r="175" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A175" s="12"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -6053,22 +5471,20 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="R175" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T175" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V175" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A176" s="11"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N175" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P175" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T175" s="9"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A176" s="12"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -6079,22 +5495,20 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="R176" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T176" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V176" s="10" t="s">
+      <c r="L176" s="5"/>
+      <c r="M176" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A177" s="11"/>
+      <c r="N176" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P176" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T176" s="9"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A177" s="12"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -6105,22 +5519,20 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="R177" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T177" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V177" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD177" s="8"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N177" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P177" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A178" s="11"/>
+      <c r="A178" s="12"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -6131,22 +5543,20 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="R178" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T178" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V178" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD178" s="8"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N178" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P178" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T178" s="9"/>
     </row>
     <row r="179" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A179" s="11"/>
+      <c r="A179" s="12"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -6157,22 +5567,20 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="R179" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T179" s="10" t="s">
+      <c r="L179" s="5"/>
+      <c r="M179" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V179" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A180" s="11"/>
+      <c r="N179" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P179" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T179" s="9"/>
+    </row>
+    <row r="180" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A180" s="12"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -6183,22 +5591,20 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="R180" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T180" s="10" t="s">
+      <c r="L180" s="5"/>
+      <c r="M180" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V180" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A181" s="11"/>
+      <c r="N180" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P180" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T180" s="9"/>
+    </row>
+    <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A181" s="12"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -6209,22 +5615,20 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="R181" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T181" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V181" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD181" s="8"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P181" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A182" s="11"/>
+      <c r="A182" s="12"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -6235,40 +5639,40 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="6"/>
-      <c r="AD182" s="8"/>
+      <c r="L182" s="5"/>
+      <c r="T182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
+      <c r="L183" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
@@ -6276,18 +5680,8 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
       <c r="S183" s="6"/>
-      <c r="T183" s="6"/>
-      <c r="U183" s="6"/>
-      <c r="V183" s="6"/>
-      <c r="W183" s="6"/>
-      <c r="X183" s="6"/>
-      <c r="Y183" s="6"/>
-      <c r="Z183" s="6"/>
-      <c r="AA183" s="6"/>
-      <c r="AB183" s="6"/>
-      <c r="AC183" s="6"/>
-      <c r="AD183" s="8" t="s">
-        <v>35</v>
+      <c r="T183" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6302,21 +5696,19 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="R184" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T184" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V184" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L184" s="5"/>
+      <c r="M184" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N184" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P184" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T184" s="9"/>
+    </row>
+    <row r="185" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -6328,21 +5720,19 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="R185" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T185" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V185" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L185" s="5"/>
+      <c r="M185" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N185" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P185" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T185" s="9"/>
+    </row>
+    <row r="186" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -6354,21 +5744,19 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="R186" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T186" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V186" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L186" s="5"/>
+      <c r="M186" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N186" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P186" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T186" s="9"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -6380,21 +5768,19 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="6"/>
-      <c r="R187" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T187" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V187" s="10" t="s">
+      <c r="L187" s="5"/>
+      <c r="M187" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N187" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P187" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T187" s="9"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -6406,19 +5792,17 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="R188" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T188" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V188" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD188" s="8"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N188" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P188" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A189" s="4"/>
@@ -6432,19 +5816,17 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
-      <c r="R189" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T189" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V189" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD189" s="8"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P189" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A190" s="4"/>
@@ -6458,21 +5840,19 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
-      <c r="O190" s="6"/>
-      <c r="R190" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T190" s="10" t="s">
+      <c r="L190" s="5"/>
+      <c r="M190" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V190" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N190" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P190" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T190" s="9"/>
+    </row>
+    <row r="191" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -6484,21 +5864,19 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6"/>
-      <c r="R191" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T191" s="10" t="s">
+      <c r="L191" s="5"/>
+      <c r="M191" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V191" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N191" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P191" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T191" s="9"/>
+    </row>
+    <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -6510,19 +5888,17 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
-      <c r="M192" s="6"/>
-      <c r="N192" s="6"/>
-      <c r="O192" s="6"/>
-      <c r="R192" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T192" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V192" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD192" s="8"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N192" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P192" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T192" s="9"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A193" s="4"/>
@@ -6536,40 +5912,40 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
-      <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
-      <c r="O193" s="6"/>
-      <c r="AD193" s="8"/>
+      <c r="L193" s="5"/>
+      <c r="T193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
+      <c r="L194" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
       <c r="O194" s="6"/>
@@ -6577,18 +5953,8 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="6"/>
       <c r="S194" s="6"/>
-      <c r="T194" s="6"/>
-      <c r="U194" s="6"/>
-      <c r="V194" s="6"/>
-      <c r="W194" s="6"/>
-      <c r="X194" s="6"/>
-      <c r="Y194" s="6"/>
-      <c r="Z194" s="6"/>
-      <c r="AA194" s="6"/>
-      <c r="AB194" s="6"/>
-      <c r="AC194" s="6"/>
-      <c r="AD194" s="8" t="s">
-        <v>35</v>
+      <c r="T194" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6603,21 +5969,19 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
-      <c r="M195" s="6"/>
-      <c r="N195" s="6"/>
-      <c r="O195" s="6"/>
-      <c r="R195" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T195" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V195" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L195" s="5"/>
+      <c r="M195" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P195" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T195" s="9"/>
+    </row>
+    <row r="196" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -6629,21 +5993,19 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6"/>
-      <c r="R196" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T196" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V196" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L196" s="5"/>
+      <c r="M196" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N196" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P196" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T196" s="9"/>
+    </row>
+    <row r="197" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -6655,21 +6017,19 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
-      <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
-      <c r="O197" s="6"/>
-      <c r="R197" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T197" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V197" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L197" s="5"/>
+      <c r="M197" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P197" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T197" s="9"/>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -6681,21 +6041,19 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-      <c r="R198" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T198" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V198" s="10" t="s">
+      <c r="L198" s="5"/>
+      <c r="M198" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N198" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P198" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T198" s="9"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -6707,19 +6065,17 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
-      <c r="O199" s="6"/>
-      <c r="R199" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T199" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V199" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD199" s="8"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N199" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P199" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A200" s="4"/>
@@ -6733,19 +6089,17 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
-      <c r="R200" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T200" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V200" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD200" s="8"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N200" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P200" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A201" s="4"/>
@@ -6759,21 +6113,19 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-      <c r="R201" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T201" s="10" t="s">
+      <c r="L201" s="5"/>
+      <c r="M201" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V201" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N201" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T201" s="9"/>
+    </row>
+    <row r="202" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -6785,21 +6137,19 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
-      <c r="O202" s="6"/>
-      <c r="R202" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T202" s="10" t="s">
+      <c r="L202" s="5"/>
+      <c r="M202" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V202" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N202" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P202" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T202" s="9"/>
+    </row>
+    <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6811,19 +6161,17 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6"/>
-      <c r="R203" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T203" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V203" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD203" s="8"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N203" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P203" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A204" s="4"/>
@@ -6837,40 +6185,40 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
-      <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
-      <c r="O204" s="6"/>
-      <c r="AD204" s="8"/>
+      <c r="L204" s="5"/>
+      <c r="T204" s="9"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K205" s="6"/>
-      <c r="L205" s="6"/>
+      <c r="L205" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M205" s="6"/>
       <c r="N205" s="6"/>
       <c r="O205" s="6"/>
@@ -6878,18 +6226,8 @@
       <c r="Q205" s="6"/>
       <c r="R205" s="6"/>
       <c r="S205" s="6"/>
-      <c r="T205" s="6"/>
-      <c r="U205" s="6"/>
-      <c r="V205" s="6"/>
-      <c r="W205" s="6"/>
-      <c r="X205" s="6"/>
-      <c r="Y205" s="6"/>
-      <c r="Z205" s="6"/>
-      <c r="AA205" s="6"/>
-      <c r="AB205" s="6"/>
-      <c r="AC205" s="6"/>
-      <c r="AD205" s="8" t="s">
-        <v>35</v>
+      <c r="T205" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6904,21 +6242,19 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
-      <c r="M206" s="6"/>
-      <c r="N206" s="6"/>
-      <c r="O206" s="6"/>
-      <c r="R206" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T206" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V206" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L206" s="5"/>
+      <c r="M206" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P206" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T206" s="9"/>
+    </row>
+    <row r="207" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6930,21 +6266,19 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
-      <c r="M207" s="6"/>
-      <c r="N207" s="6"/>
-      <c r="O207" s="6"/>
-      <c r="R207" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T207" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V207" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L207" s="5"/>
+      <c r="M207" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N207" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P207" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T207" s="9"/>
+    </row>
+    <row r="208" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6956,21 +6290,19 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
-      <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
-      <c r="O208" s="6"/>
-      <c r="R208" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T208" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V208" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L208" s="5"/>
+      <c r="M208" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N208" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P208" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T208" s="9"/>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6982,21 +6314,19 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
-      <c r="M209" s="6"/>
-      <c r="N209" s="6"/>
-      <c r="O209" s="6"/>
-      <c r="R209" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T209" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V209" s="10" t="s">
+      <c r="L209" s="5"/>
+      <c r="M209" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N209" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T209" s="9"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -7008,19 +6338,17 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
-      <c r="O210" s="6"/>
-      <c r="R210" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T210" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V210" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD210" s="8"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P210" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T210" s="9"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A211" s="4"/>
@@ -7034,19 +6362,17 @@
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
-      <c r="M211" s="6"/>
-      <c r="N211" s="6"/>
-      <c r="O211" s="6"/>
-      <c r="R211" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T211" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V211" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD211" s="8"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N211" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P211" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T211" s="9"/>
     </row>
     <row r="212" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A212" s="4"/>
@@ -7060,21 +6386,19 @@
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
-      <c r="M212" s="6"/>
-      <c r="N212" s="6"/>
-      <c r="O212" s="6"/>
-      <c r="R212" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T212" s="10" t="s">
+      <c r="L212" s="5"/>
+      <c r="M212" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V212" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N212" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P212" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T212" s="9"/>
+    </row>
+    <row r="213" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -7086,21 +6410,19 @@
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
-      <c r="M213" s="6"/>
-      <c r="N213" s="6"/>
-      <c r="O213" s="6"/>
-      <c r="R213" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T213" s="10" t="s">
+      <c r="L213" s="5"/>
+      <c r="M213" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V213" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N213" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P213" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T213" s="9"/>
+    </row>
+    <row r="214" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -7112,19 +6434,17 @@
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
-      <c r="M214" s="6"/>
-      <c r="N214" s="6"/>
-      <c r="O214" s="6"/>
-      <c r="R214" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T214" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V214" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD214" s="8"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P214" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T214" s="9"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A215" s="4"/>
@@ -7138,40 +6458,40 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
-      <c r="M215" s="6"/>
-      <c r="N215" s="6"/>
-      <c r="O215" s="6"/>
-      <c r="AD215" s="8"/>
+      <c r="L215" s="5"/>
+      <c r="T215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K216" s="6"/>
-      <c r="L216" s="6"/>
+      <c r="L216" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M216" s="6"/>
       <c r="N216" s="6"/>
       <c r="O216" s="6"/>
@@ -7179,18 +6499,8 @@
       <c r="Q216" s="6"/>
       <c r="R216" s="6"/>
       <c r="S216" s="6"/>
-      <c r="T216" s="6"/>
-      <c r="U216" s="6"/>
-      <c r="V216" s="6"/>
-      <c r="W216" s="6"/>
-      <c r="X216" s="6"/>
-      <c r="Y216" s="6"/>
-      <c r="Z216" s="6"/>
-      <c r="AA216" s="6"/>
-      <c r="AB216" s="6"/>
-      <c r="AC216" s="6"/>
-      <c r="AD216" s="8" t="s">
-        <v>35</v>
+      <c r="T216" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -7205,21 +6515,19 @@
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
-      <c r="M217" s="6"/>
-      <c r="N217" s="6"/>
-      <c r="O217" s="6"/>
-      <c r="R217" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T217" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V217" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L217" s="5"/>
+      <c r="M217" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N217" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T217" s="9"/>
+    </row>
+    <row r="218" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -7231,21 +6539,19 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
-      <c r="M218" s="6"/>
-      <c r="N218" s="6"/>
-      <c r="O218" s="6"/>
-      <c r="R218" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T218" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V218" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L218" s="5"/>
+      <c r="M218" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N218" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P218" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T218" s="9"/>
+    </row>
+    <row r="219" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -7257,21 +6563,19 @@
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
-      <c r="M219" s="6"/>
-      <c r="N219" s="6"/>
-      <c r="O219" s="6"/>
-      <c r="R219" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T219" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V219" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L219" s="5"/>
+      <c r="M219" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N219" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P219" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T219" s="9"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -7283,21 +6587,19 @@
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
-      <c r="M220" s="6"/>
-      <c r="N220" s="6"/>
-      <c r="O220" s="6"/>
-      <c r="R220" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T220" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V220" s="10" t="s">
+      <c r="L220" s="5"/>
+      <c r="M220" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N220" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P220" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T220" s="9"/>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -7309,19 +6611,17 @@
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
-      <c r="M221" s="6"/>
-      <c r="N221" s="6"/>
-      <c r="O221" s="6"/>
-      <c r="R221" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T221" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V221" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD221" s="8"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N221" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P221" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A222" s="4"/>
@@ -7335,19 +6635,17 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
-      <c r="M222" s="6"/>
-      <c r="N222" s="6"/>
-      <c r="O222" s="6"/>
-      <c r="R222" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T222" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V222" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD222" s="8"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N222" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P222" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A223" s="4"/>
@@ -7361,21 +6659,19 @@
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
-      <c r="M223" s="6"/>
-      <c r="N223" s="6"/>
-      <c r="O223" s="6"/>
-      <c r="R223" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T223" s="10" t="s">
+      <c r="L223" s="5"/>
+      <c r="M223" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V223" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N223" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P223" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T223" s="9"/>
+    </row>
+    <row r="224" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -7387,21 +6683,19 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
-      <c r="M224" s="6"/>
-      <c r="N224" s="6"/>
-      <c r="O224" s="6"/>
-      <c r="R224" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T224" s="10" t="s">
+      <c r="L224" s="5"/>
+      <c r="M224" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V224" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N224" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P224" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T224" s="9"/>
+    </row>
+    <row r="225" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -7413,19 +6707,17 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
-      <c r="M225" s="6"/>
-      <c r="N225" s="6"/>
-      <c r="O225" s="6"/>
-      <c r="R225" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T225" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V225" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD225" s="8"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N225" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P225" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A226" s="4"/>
@@ -7439,40 +6731,40 @@
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
-      <c r="M226" s="6"/>
-      <c r="N226" s="6"/>
-      <c r="O226" s="6"/>
-      <c r="AD226" s="8"/>
+      <c r="L226" s="5"/>
+      <c r="T226" s="9"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J227" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K227" s="6"/>
-      <c r="L227" s="6"/>
+      <c r="L227" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M227" s="6"/>
       <c r="N227" s="6"/>
       <c r="O227" s="6"/>
@@ -7480,18 +6772,8 @@
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
       <c r="S227" s="6"/>
-      <c r="T227" s="6"/>
-      <c r="U227" s="6"/>
-      <c r="V227" s="6"/>
-      <c r="W227" s="6"/>
-      <c r="X227" s="6"/>
-      <c r="Y227" s="6"/>
-      <c r="Z227" s="6"/>
-      <c r="AA227" s="6"/>
-      <c r="AB227" s="6"/>
-      <c r="AC227" s="6"/>
-      <c r="AD227" s="8" t="s">
-        <v>35</v>
+      <c r="T227" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -7506,21 +6788,19 @@
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
-      <c r="M228" s="6"/>
-      <c r="N228" s="6"/>
-      <c r="O228" s="6"/>
-      <c r="R228" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T228" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V228" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L228" s="5"/>
+      <c r="M228" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N228" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P228" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T228" s="9"/>
+    </row>
+    <row r="229" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -7532,21 +6812,19 @@
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
-      <c r="M229" s="6"/>
-      <c r="N229" s="6"/>
-      <c r="O229" s="6"/>
-      <c r="R229" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T229" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V229" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L229" s="5"/>
+      <c r="M229" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N229" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P229" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T229" s="9"/>
+    </row>
+    <row r="230" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -7558,21 +6836,19 @@
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
-      <c r="M230" s="6"/>
-      <c r="N230" s="6"/>
-      <c r="O230" s="6"/>
-      <c r="R230" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T230" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V230" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="L230" s="5"/>
+      <c r="M230" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N230" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P230" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T230" s="9"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -7584,21 +6860,19 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
-      <c r="M231" s="6"/>
-      <c r="N231" s="6"/>
-      <c r="O231" s="6"/>
-      <c r="R231" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T231" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V231" s="10" t="s">
+      <c r="L231" s="5"/>
+      <c r="M231" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N231" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P231" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T231" s="9"/>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7610,19 +6884,17 @@
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
-      <c r="M232" s="6"/>
-      <c r="N232" s="6"/>
-      <c r="O232" s="6"/>
-      <c r="R232" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T232" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V232" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD232" s="8"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N232" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P232" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T232" s="9"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A233" s="4"/>
@@ -7636,19 +6908,17 @@
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
-      <c r="M233" s="6"/>
-      <c r="N233" s="6"/>
-      <c r="O233" s="6"/>
-      <c r="R233" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T233" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V233" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD233" s="8"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N233" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P233" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T233" s="9"/>
     </row>
     <row r="234" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A234" s="4"/>
@@ -7662,21 +6932,19 @@
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
-      <c r="M234" s="6"/>
-      <c r="N234" s="6"/>
-      <c r="O234" s="6"/>
-      <c r="R234" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T234" s="10" t="s">
+      <c r="L234" s="5"/>
+      <c r="M234" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V234" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N234" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P234" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T234" s="9"/>
+    </row>
+    <row r="235" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -7688,21 +6956,19 @@
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
-      <c r="M235" s="6"/>
-      <c r="N235" s="6"/>
-      <c r="O235" s="6"/>
-      <c r="R235" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T235" s="10" t="s">
+      <c r="L235" s="5"/>
+      <c r="M235" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V235" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD235" s="8"/>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N235" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P235" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T235" s="9"/>
+    </row>
+    <row r="236" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -7714,19 +6980,17 @@
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
-      <c r="M236" s="6"/>
-      <c r="N236" s="6"/>
-      <c r="O236" s="6"/>
-      <c r="R236" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T236" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V236" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD236" s="8"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N236" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P236" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T236" s="9"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A237" s="4"/>
@@ -7740,36 +7004,36 @@
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
-      <c r="M237" s="6"/>
-      <c r="N237" s="6"/>
-      <c r="O237" s="6"/>
-      <c r="AD237" s="8"/>
+      <c r="L237" s="5"/>
+      <c r="T237" s="9"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A238" s="11"/>
+      <c r="A238" s="12"/>
       <c r="B238" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J238" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K238" s="6"/>
-      <c r="L238" s="6"/>
+      <c r="L238" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M238" s="6"/>
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
@@ -7777,22 +7041,12 @@
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6"/>
-      <c r="T238" s="6"/>
-      <c r="U238" s="6"/>
-      <c r="V238" s="6"/>
-      <c r="W238" s="6"/>
-      <c r="X238" s="6"/>
-      <c r="Y238" s="6"/>
-      <c r="Z238" s="6"/>
-      <c r="AA238" s="6"/>
-      <c r="AB238" s="6"/>
-      <c r="AC238" s="6"/>
-      <c r="AD238" s="8" t="s">
-        <v>35</v>
+      <c r="T238" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A239" s="11"/>
+      <c r="A239" s="12"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -7803,22 +7057,20 @@
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
-      <c r="M239" s="6"/>
-      <c r="N239" s="6"/>
-      <c r="O239" s="6"/>
-      <c r="R239" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T239" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V239" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD239" s="8"/>
-    </row>
-    <row r="240" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A240" s="11"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N239" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P239" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T239" s="9"/>
+    </row>
+    <row r="240" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A240" s="12"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -7829,22 +7081,20 @@
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
-      <c r="M240" s="6"/>
-      <c r="N240" s="6"/>
-      <c r="O240" s="6"/>
-      <c r="R240" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T240" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V240" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD240" s="8"/>
-    </row>
-    <row r="241" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A241" s="11"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N240" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P240" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T240" s="9"/>
+    </row>
+    <row r="241" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A241" s="12"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -7855,22 +7105,20 @@
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
-      <c r="M241" s="6"/>
-      <c r="N241" s="6"/>
-      <c r="O241" s="6"/>
-      <c r="R241" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T241" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V241" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD241" s="8"/>
-    </row>
-    <row r="242" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A242" s="11"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N241" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P241" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T241" s="9"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A242" s="12"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -7881,22 +7129,20 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
-      <c r="M242" s="6"/>
-      <c r="N242" s="6"/>
-      <c r="O242" s="6"/>
-      <c r="R242" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T242" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V242" s="10" t="s">
+      <c r="L242" s="5"/>
+      <c r="M242" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD242" s="8"/>
-    </row>
-    <row r="243" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A243" s="11"/>
+      <c r="N242" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P242" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T242" s="9"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A243" s="12"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -7907,22 +7153,20 @@
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
-      <c r="M243" s="6"/>
-      <c r="N243" s="6"/>
-      <c r="O243" s="6"/>
-      <c r="R243" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T243" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V243" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD243" s="8"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N243" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P243" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T243" s="9"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A244" s="11"/>
+      <c r="A244" s="12"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -7933,22 +7177,20 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
       <c r="K244" s="5"/>
-      <c r="M244" s="6"/>
-      <c r="N244" s="6"/>
-      <c r="O244" s="6"/>
-      <c r="R244" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T244" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V244" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD244" s="8"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N244" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P244" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A245" s="11"/>
+      <c r="A245" s="12"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -7959,22 +7201,20 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
-      <c r="M245" s="6"/>
-      <c r="N245" s="6"/>
-      <c r="O245" s="6"/>
-      <c r="R245" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T245" s="10" t="s">
+      <c r="L245" s="5"/>
+      <c r="M245" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V245" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD245" s="8"/>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A246" s="11"/>
+      <c r="N245" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P245" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T245" s="9"/>
+    </row>
+    <row r="246" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A246" s="12"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -7985,22 +7225,20 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
-      <c r="M246" s="6"/>
-      <c r="N246" s="6"/>
-      <c r="O246" s="6"/>
-      <c r="R246" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T246" s="10" t="s">
+      <c r="L246" s="5"/>
+      <c r="M246" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V246" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD246" s="8"/>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A247" s="11"/>
+      <c r="N246" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P246" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T246" s="9"/>
+    </row>
+    <row r="247" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A247" s="12"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -8011,22 +7249,20 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
-      <c r="M247" s="6"/>
-      <c r="N247" s="6"/>
-      <c r="O247" s="6"/>
-      <c r="R247" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T247" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V247" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD247" s="8"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N247" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P247" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T247" s="9"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A248" s="11"/>
+      <c r="A248" s="12"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -8037,51 +7273,43 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
-      <c r="M248" s="6"/>
-      <c r="N248" s="6"/>
-      <c r="O248" s="6"/>
-      <c r="AD248" s="8"/>
+      <c r="L248" s="5"/>
+      <c r="T248" s="9"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13"/>
-      <c r="G249" s="13"/>
-      <c r="H249" s="13"/>
-      <c r="I249" s="13"/>
-      <c r="J249" s="13"/>
-      <c r="K249" s="13"/>
-      <c r="L249" s="13"/>
-      <c r="M249" s="13"/>
-      <c r="N249" s="13"/>
-      <c r="O249" s="13"/>
-      <c r="P249" s="13"/>
-      <c r="Q249" s="13"/>
-      <c r="R249" s="13"/>
-      <c r="S249" s="13"/>
-      <c r="T249" s="13"/>
-      <c r="U249" s="13"/>
-      <c r="V249" s="13"/>
-      <c r="W249" s="13"/>
-      <c r="X249" s="13"/>
-      <c r="Y249" s="13"/>
-      <c r="Z249" s="13"/>
-      <c r="AA249" s="13"/>
-      <c r="AB249" s="13"/>
-      <c r="AC249" s="13"/>
-      <c r="AD249" s="14"/>
+      <c r="A249" s="13"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
+      <c r="P249" s="14"/>
+      <c r="Q249" s="14"/>
+      <c r="R249" s="14"/>
+      <c r="S249" s="14"/>
+      <c r="T249" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="296">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:Y1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
@@ -8094,12 +7322,7 @@
     <mergeCell ref="J4:J10"/>
     <mergeCell ref="K4:K10"/>
     <mergeCell ref="L4:L10"/>
-    <mergeCell ref="M4:M10"/>
-    <mergeCell ref="N4:N10"/>
-    <mergeCell ref="O4:O10"/>
-    <mergeCell ref="P4:P10"/>
-    <mergeCell ref="Q4:Q10"/>
-    <mergeCell ref="AD4:AD10"/>
+    <mergeCell ref="T4:T10"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:C17"/>
@@ -8112,10 +7335,7 @@
     <mergeCell ref="J11:J17"/>
     <mergeCell ref="K11:K17"/>
     <mergeCell ref="L11:L17"/>
-    <mergeCell ref="M11:M17"/>
-    <mergeCell ref="N11:N17"/>
-    <mergeCell ref="O11:O17"/>
-    <mergeCell ref="AD11:AD17"/>
+    <mergeCell ref="T11:T17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="C18:C24"/>
@@ -8128,12 +7348,7 @@
     <mergeCell ref="J18:J24"/>
     <mergeCell ref="K18:K24"/>
     <mergeCell ref="L18:L24"/>
-    <mergeCell ref="M18:M24"/>
-    <mergeCell ref="N18:N24"/>
-    <mergeCell ref="O18:O24"/>
-    <mergeCell ref="P18:P24"/>
-    <mergeCell ref="Q18:Q24"/>
-    <mergeCell ref="AD18:AD24"/>
+    <mergeCell ref="T18:T24"/>
     <mergeCell ref="A25:A38"/>
     <mergeCell ref="B25:B38"/>
     <mergeCell ref="C25:C38"/>
@@ -8146,10 +7361,7 @@
     <mergeCell ref="J25:J38"/>
     <mergeCell ref="K25:K38"/>
     <mergeCell ref="L25:L38"/>
-    <mergeCell ref="M25:M38"/>
-    <mergeCell ref="N25:N38"/>
-    <mergeCell ref="O25:O38"/>
-    <mergeCell ref="AD25:AD38"/>
+    <mergeCell ref="T25:T38"/>
     <mergeCell ref="A39:A51"/>
     <mergeCell ref="B39:B51"/>
     <mergeCell ref="C39:C51"/>
@@ -8162,10 +7374,7 @@
     <mergeCell ref="J39:J51"/>
     <mergeCell ref="K39:K51"/>
     <mergeCell ref="L39:L51"/>
-    <mergeCell ref="M39:M51"/>
-    <mergeCell ref="N39:N51"/>
-    <mergeCell ref="O39:O51"/>
-    <mergeCell ref="AD39:AD51"/>
+    <mergeCell ref="T39:T51"/>
     <mergeCell ref="A52:A63"/>
     <mergeCell ref="B52:B63"/>
     <mergeCell ref="C52:C63"/>
@@ -8178,10 +7387,7 @@
     <mergeCell ref="J52:J63"/>
     <mergeCell ref="K52:K63"/>
     <mergeCell ref="L52:L63"/>
-    <mergeCell ref="M52:M63"/>
-    <mergeCell ref="N52:N63"/>
-    <mergeCell ref="O52:O63"/>
-    <mergeCell ref="AD52:AD63"/>
+    <mergeCell ref="T52:T63"/>
     <mergeCell ref="A64:A76"/>
     <mergeCell ref="B64:B76"/>
     <mergeCell ref="C64:C76"/>
@@ -8194,10 +7400,7 @@
     <mergeCell ref="J64:J76"/>
     <mergeCell ref="K64:K76"/>
     <mergeCell ref="L64:L76"/>
-    <mergeCell ref="M64:M76"/>
-    <mergeCell ref="N64:N76"/>
-    <mergeCell ref="O64:O76"/>
-    <mergeCell ref="AD64:AD76"/>
+    <mergeCell ref="T64:T76"/>
     <mergeCell ref="A77:A90"/>
     <mergeCell ref="B77:B90"/>
     <mergeCell ref="C77:C90"/>
@@ -8209,10 +7412,8 @@
     <mergeCell ref="I77:I90"/>
     <mergeCell ref="J77:J90"/>
     <mergeCell ref="K77:K90"/>
-    <mergeCell ref="M77:M90"/>
-    <mergeCell ref="N77:N90"/>
-    <mergeCell ref="O77:O90"/>
-    <mergeCell ref="AD77:AD90"/>
+    <mergeCell ref="L77:L90"/>
+    <mergeCell ref="T77:T90"/>
     <mergeCell ref="A91:A101"/>
     <mergeCell ref="B91:B101"/>
     <mergeCell ref="C91:C101"/>
@@ -8224,10 +7425,8 @@
     <mergeCell ref="I91:I101"/>
     <mergeCell ref="J91:J101"/>
     <mergeCell ref="K91:K101"/>
-    <mergeCell ref="M91:M101"/>
-    <mergeCell ref="N91:N101"/>
-    <mergeCell ref="O91:O101"/>
-    <mergeCell ref="AD91:AD101"/>
+    <mergeCell ref="L91:L101"/>
+    <mergeCell ref="T91:T101"/>
     <mergeCell ref="A102:A113"/>
     <mergeCell ref="B102:B113"/>
     <mergeCell ref="C102:C113"/>
@@ -8239,10 +7438,8 @@
     <mergeCell ref="I102:I113"/>
     <mergeCell ref="J102:J113"/>
     <mergeCell ref="K102:K113"/>
-    <mergeCell ref="M102:M113"/>
-    <mergeCell ref="N102:N113"/>
-    <mergeCell ref="O102:O113"/>
-    <mergeCell ref="AD102:AD113"/>
+    <mergeCell ref="L102:L113"/>
+    <mergeCell ref="T102:T113"/>
     <mergeCell ref="A114:A125"/>
     <mergeCell ref="B114:B125"/>
     <mergeCell ref="C114:C125"/>
@@ -8254,10 +7451,8 @@
     <mergeCell ref="I114:I125"/>
     <mergeCell ref="J114:J125"/>
     <mergeCell ref="K114:K125"/>
-    <mergeCell ref="M114:M125"/>
-    <mergeCell ref="N114:N125"/>
-    <mergeCell ref="O114:O125"/>
-    <mergeCell ref="AD114:AD125"/>
+    <mergeCell ref="L114:L125"/>
+    <mergeCell ref="T114:T125"/>
     <mergeCell ref="A126:A138"/>
     <mergeCell ref="B126:B138"/>
     <mergeCell ref="C126:C138"/>
@@ -8269,10 +7464,8 @@
     <mergeCell ref="I126:I138"/>
     <mergeCell ref="J126:J138"/>
     <mergeCell ref="K126:K138"/>
-    <mergeCell ref="M126:M138"/>
-    <mergeCell ref="N126:N138"/>
-    <mergeCell ref="O126:O138"/>
-    <mergeCell ref="AD126:AD138"/>
+    <mergeCell ref="L126:L138"/>
+    <mergeCell ref="T126:T138"/>
     <mergeCell ref="A139:A149"/>
     <mergeCell ref="B139:B149"/>
     <mergeCell ref="C139:C149"/>
@@ -8284,10 +7477,8 @@
     <mergeCell ref="I139:I149"/>
     <mergeCell ref="J139:J149"/>
     <mergeCell ref="K139:K149"/>
-    <mergeCell ref="M139:M149"/>
-    <mergeCell ref="N139:N149"/>
-    <mergeCell ref="O139:O149"/>
-    <mergeCell ref="AD139:AD149"/>
+    <mergeCell ref="L139:L149"/>
+    <mergeCell ref="T139:T149"/>
     <mergeCell ref="A150:A160"/>
     <mergeCell ref="B150:B160"/>
     <mergeCell ref="C150:C160"/>
@@ -8299,10 +7490,8 @@
     <mergeCell ref="I150:I160"/>
     <mergeCell ref="J150:J160"/>
     <mergeCell ref="K150:K160"/>
-    <mergeCell ref="M150:M160"/>
-    <mergeCell ref="N150:N160"/>
-    <mergeCell ref="O150:O160"/>
-    <mergeCell ref="AD150:AD160"/>
+    <mergeCell ref="L150:L160"/>
+    <mergeCell ref="T150:T160"/>
     <mergeCell ref="A161:A171"/>
     <mergeCell ref="B161:B171"/>
     <mergeCell ref="C161:C171"/>
@@ -8314,10 +7503,8 @@
     <mergeCell ref="I161:I171"/>
     <mergeCell ref="J161:J171"/>
     <mergeCell ref="K161:K171"/>
-    <mergeCell ref="M161:M171"/>
-    <mergeCell ref="N161:N171"/>
-    <mergeCell ref="O161:O171"/>
-    <mergeCell ref="AD161:AD171"/>
+    <mergeCell ref="L161:L171"/>
+    <mergeCell ref="T161:T171"/>
     <mergeCell ref="A172:A182"/>
     <mergeCell ref="B172:B182"/>
     <mergeCell ref="C172:C182"/>
@@ -8329,10 +7516,8 @@
     <mergeCell ref="I172:I182"/>
     <mergeCell ref="J172:J182"/>
     <mergeCell ref="K172:K182"/>
-    <mergeCell ref="M172:M182"/>
-    <mergeCell ref="N172:N182"/>
-    <mergeCell ref="O172:O182"/>
-    <mergeCell ref="AD172:AD182"/>
+    <mergeCell ref="L172:L182"/>
+    <mergeCell ref="T172:T182"/>
     <mergeCell ref="A183:A193"/>
     <mergeCell ref="B183:B193"/>
     <mergeCell ref="C183:C193"/>
@@ -8344,10 +7529,8 @@
     <mergeCell ref="I183:I193"/>
     <mergeCell ref="J183:J193"/>
     <mergeCell ref="K183:K193"/>
-    <mergeCell ref="M183:M193"/>
-    <mergeCell ref="N183:N193"/>
-    <mergeCell ref="O183:O193"/>
-    <mergeCell ref="AD183:AD193"/>
+    <mergeCell ref="L183:L193"/>
+    <mergeCell ref="T183:T193"/>
     <mergeCell ref="A194:A204"/>
     <mergeCell ref="B194:B204"/>
     <mergeCell ref="C194:C204"/>
@@ -8359,10 +7542,8 @@
     <mergeCell ref="I194:I204"/>
     <mergeCell ref="J194:J204"/>
     <mergeCell ref="K194:K204"/>
-    <mergeCell ref="M194:M204"/>
-    <mergeCell ref="N194:N204"/>
-    <mergeCell ref="O194:O204"/>
-    <mergeCell ref="AD194:AD204"/>
+    <mergeCell ref="L194:L204"/>
+    <mergeCell ref="T194:T204"/>
     <mergeCell ref="A205:A215"/>
     <mergeCell ref="B205:B215"/>
     <mergeCell ref="C205:C215"/>
@@ -8374,10 +7555,8 @@
     <mergeCell ref="I205:I215"/>
     <mergeCell ref="J205:J215"/>
     <mergeCell ref="K205:K215"/>
-    <mergeCell ref="M205:M215"/>
-    <mergeCell ref="N205:N215"/>
-    <mergeCell ref="O205:O215"/>
-    <mergeCell ref="AD205:AD215"/>
+    <mergeCell ref="L205:L215"/>
+    <mergeCell ref="T205:T215"/>
     <mergeCell ref="A216:A226"/>
     <mergeCell ref="B216:B226"/>
     <mergeCell ref="C216:C226"/>
@@ -8389,10 +7568,8 @@
     <mergeCell ref="I216:I226"/>
     <mergeCell ref="J216:J226"/>
     <mergeCell ref="K216:K226"/>
-    <mergeCell ref="M216:M226"/>
-    <mergeCell ref="N216:N226"/>
-    <mergeCell ref="O216:O226"/>
-    <mergeCell ref="AD216:AD226"/>
+    <mergeCell ref="L216:L226"/>
+    <mergeCell ref="T216:T226"/>
     <mergeCell ref="A227:A237"/>
     <mergeCell ref="B227:B237"/>
     <mergeCell ref="C227:C237"/>
@@ -8404,10 +7581,8 @@
     <mergeCell ref="I227:I237"/>
     <mergeCell ref="J227:J237"/>
     <mergeCell ref="K227:K237"/>
-    <mergeCell ref="M227:M237"/>
-    <mergeCell ref="N227:N237"/>
-    <mergeCell ref="O227:O237"/>
-    <mergeCell ref="AD227:AD237"/>
+    <mergeCell ref="L227:L237"/>
+    <mergeCell ref="T227:T237"/>
     <mergeCell ref="A238:A248"/>
     <mergeCell ref="B238:B248"/>
     <mergeCell ref="C238:C248"/>
@@ -8419,213 +7594,211 @@
     <mergeCell ref="I238:I248"/>
     <mergeCell ref="J238:J248"/>
     <mergeCell ref="K238:K248"/>
-    <mergeCell ref="M238:M248"/>
-    <mergeCell ref="N238:N248"/>
-    <mergeCell ref="O238:O248"/>
-    <mergeCell ref="AD238:AD248"/>
+    <mergeCell ref="L238:L248"/>
+    <mergeCell ref="T238:T248"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="R5" r:id="rId1" display="Name"/>
-    <hyperlink ref="R6" r:id="rId2" display="Type"/>
-    <hyperlink ref="R7" r:id="rId3" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R8" r:id="rId4" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R9" r:id="rId5" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R12" r:id="rId6" display="Name"/>
-    <hyperlink ref="R13" r:id="rId7" display="Type"/>
-    <hyperlink ref="R14" r:id="rId8" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R15" r:id="rId9" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R16" r:id="rId10" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R19" r:id="rId11" display="Name"/>
-    <hyperlink ref="R20" r:id="rId12" display="Type"/>
-    <hyperlink ref="R21" r:id="rId13" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R22" r:id="rId14" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R23" r:id="rId15" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R26" r:id="rId16" display="Name"/>
-    <hyperlink ref="R27" r:id="rId17" display="Type"/>
-    <hyperlink ref="R28" r:id="rId18" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R29" r:id="rId19" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R30" r:id="rId20" display="Tag"/>
-    <hyperlink ref="R31" r:id="rId21" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R32" r:id="rId22" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R33" r:id="rId23" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R34" r:id="rId24" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R35" r:id="rId25" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
-    <hyperlink ref="R36" r:id="rId26" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R37" r:id="rId27" display="Pset_QuantityTakeOff.VolumetricFlowRate"/>
-    <hyperlink ref="R40" r:id="rId28" display="Name"/>
-    <hyperlink ref="R41" r:id="rId29" display="Type"/>
-    <hyperlink ref="R42" r:id="rId30" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R43" r:id="rId31" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R44" r:id="rId32" display="Tag"/>
-    <hyperlink ref="R45" r:id="rId33" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R46" r:id="rId34" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R47" r:id="rId35" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R48" r:id="rId36" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R49" r:id="rId37" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
-    <hyperlink ref="R50" r:id="rId38" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R53" r:id="rId39" display="Name"/>
-    <hyperlink ref="R54" r:id="rId40" display="Type"/>
-    <hyperlink ref="R55" r:id="rId41" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R56" r:id="rId42" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R57" r:id="rId43" display="Tag"/>
-    <hyperlink ref="R58" r:id="rId44" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R59" r:id="rId45" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R60" r:id="rId46" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R61" r:id="rId47" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R62" r:id="rId48" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R65" r:id="rId49" display="Name"/>
-    <hyperlink ref="R66" r:id="rId50" display="Type"/>
-    <hyperlink ref="R67" r:id="rId51" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R68" r:id="rId52" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R69" r:id="rId53" display="Tag"/>
-    <hyperlink ref="R70" r:id="rId54" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R71" r:id="rId55" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R72" r:id="rId56" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R73" r:id="rId57" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R74" r:id="rId58" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
-    <hyperlink ref="R75" r:id="rId59" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R78" r:id="rId60" display="Name"/>
-    <hyperlink ref="R79" r:id="rId61" display="Type"/>
-    <hyperlink ref="R80" r:id="rId62" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R81" r:id="rId63" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R82" r:id="rId64" display="Tag"/>
-    <hyperlink ref="R83" r:id="rId65" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R84" r:id="rId66" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R85" r:id="rId67" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R86" r:id="rId68" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R87" r:id="rId69" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
-    <hyperlink ref="R88" r:id="rId70" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R89" r:id="rId71" display="Pset_QuantityTakeOff.VolumetricFlowRate"/>
-    <hyperlink ref="R92" r:id="rId72" display="Name"/>
-    <hyperlink ref="R93" r:id="rId73" display="Type"/>
-    <hyperlink ref="R94" r:id="rId74" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R95" r:id="rId75" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R96" r:id="rId76" display="Tag"/>
-    <hyperlink ref="R97" r:id="rId77" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R98" r:id="rId78" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R99" r:id="rId79" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R100" r:id="rId80" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R103" r:id="rId81" display="Name"/>
-    <hyperlink ref="R104" r:id="rId82" display="Type"/>
-    <hyperlink ref="R105" r:id="rId83" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R106" r:id="rId84" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R107" r:id="rId85" display="Tag"/>
-    <hyperlink ref="R108" r:id="rId86" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R109" r:id="rId87" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R110" r:id="rId88" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R111" r:id="rId89" display="Pset_QuantityTakeOff.Weight"/>
-    <hyperlink ref="R112" r:id="rId90" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R115" r:id="rId91" display="Name"/>
-    <hyperlink ref="R116" r:id="rId92" display="Type"/>
-    <hyperlink ref="R117" r:id="rId93" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R118" r:id="rId94" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R119" r:id="rId95" display="Tag"/>
-    <hyperlink ref="R120" r:id="rId96" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R121" r:id="rId97" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R122" r:id="rId98" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R123" r:id="rId99" display="Pset_QuantityTakeOff.Weight"/>
-    <hyperlink ref="R124" r:id="rId100" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R127" r:id="rId101" display="Name"/>
-    <hyperlink ref="R128" r:id="rId102" display="Type"/>
-    <hyperlink ref="R129" r:id="rId103" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R130" r:id="rId104" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R131" r:id="rId105" display="Tag"/>
-    <hyperlink ref="R132" r:id="rId106" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R133" r:id="rId107" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R134" r:id="rId108" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R135" r:id="rId109" display="Pset_QuantityTakeOff.Weight"/>
-    <hyperlink ref="R136" r:id="rId110" display="Pset_QuantityTakeOff.Volume"/>
-    <hyperlink ref="R137" r:id="rId111" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
-    <hyperlink ref="R140" r:id="rId112" display="Name"/>
-    <hyperlink ref="R141" r:id="rId113" display="Type"/>
-    <hyperlink ref="R142" r:id="rId114" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R143" r:id="rId115" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R144" r:id="rId116" display="Tag"/>
-    <hyperlink ref="R145" r:id="rId117" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R146" r:id="rId118" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R147" r:id="rId119" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R148" r:id="rId120" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R151" r:id="rId121" display="Name"/>
-    <hyperlink ref="R152" r:id="rId122" display="Type"/>
-    <hyperlink ref="R153" r:id="rId123" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R154" r:id="rId124" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R155" r:id="rId125" display="Tag"/>
-    <hyperlink ref="R156" r:id="rId126" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R157" r:id="rId127" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R158" r:id="rId128" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R159" r:id="rId129" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R162" r:id="rId130" display="Name"/>
-    <hyperlink ref="R163" r:id="rId131" display="Type"/>
-    <hyperlink ref="R164" r:id="rId132" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R165" r:id="rId133" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R166" r:id="rId134" display="Tag"/>
-    <hyperlink ref="R167" r:id="rId135" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R168" r:id="rId136" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R169" r:id="rId137" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R170" r:id="rId138" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R173" r:id="rId139" display="Name"/>
-    <hyperlink ref="R174" r:id="rId140" display="Type"/>
-    <hyperlink ref="R175" r:id="rId141" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R176" r:id="rId142" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R177" r:id="rId143" display="Tag"/>
-    <hyperlink ref="R178" r:id="rId144" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R179" r:id="rId145" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R180" r:id="rId146" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R181" r:id="rId147" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R184" r:id="rId148" display="Name"/>
-    <hyperlink ref="R185" r:id="rId149" display="Type"/>
-    <hyperlink ref="R186" r:id="rId150" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R187" r:id="rId151" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R188" r:id="rId152" display="Tag"/>
-    <hyperlink ref="R189" r:id="rId153" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R190" r:id="rId154" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R191" r:id="rId155" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R192" r:id="rId156" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R195" r:id="rId157" display="Name"/>
-    <hyperlink ref="R196" r:id="rId158" display="Type"/>
-    <hyperlink ref="R197" r:id="rId159" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R198" r:id="rId160" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R199" r:id="rId161" display="Tag"/>
-    <hyperlink ref="R200" r:id="rId162" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R201" r:id="rId163" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R202" r:id="rId164" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R203" r:id="rId165" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R206" r:id="rId166" display="Name"/>
-    <hyperlink ref="R207" r:id="rId167" display="Type"/>
-    <hyperlink ref="R208" r:id="rId168" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R209" r:id="rId169" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R210" r:id="rId170" display="Tag"/>
-    <hyperlink ref="R211" r:id="rId171" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R212" r:id="rId172" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R213" r:id="rId173" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R214" r:id="rId174" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R217" r:id="rId175" display="Name"/>
-    <hyperlink ref="R218" r:id="rId176" display="Type"/>
-    <hyperlink ref="R219" r:id="rId177" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R220" r:id="rId178" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R221" r:id="rId179" display="Tag"/>
-    <hyperlink ref="R222" r:id="rId180" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R223" r:id="rId181" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R224" r:id="rId182" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R225" r:id="rId183" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R228" r:id="rId184" display="Name"/>
-    <hyperlink ref="R229" r:id="rId185" display="Type"/>
-    <hyperlink ref="R230" r:id="rId186" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R231" r:id="rId187" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R232" r:id="rId188" display="Tag"/>
-    <hyperlink ref="R233" r:id="rId189" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R234" r:id="rId190" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R235" r:id="rId191" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R236" r:id="rId192" display="Pset_QuantityTakeOff.Diameter"/>
-    <hyperlink ref="R239" r:id="rId193" display="Name"/>
-    <hyperlink ref="R240" r:id="rId194" display="Type"/>
-    <hyperlink ref="R241" r:id="rId195" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
-    <hyperlink ref="R242" r:id="rId196" display="Pset_ElementComponentCommon.Status"/>
-    <hyperlink ref="R243" r:id="rId197" display="Tag"/>
-    <hyperlink ref="R244" r:id="rId198" display="Pset_QuantityTakeOff.Height"/>
-    <hyperlink ref="R245" r:id="rId199" display="Pset_QuantityTakeOff.Width"/>
-    <hyperlink ref="R246" r:id="rId200" display="Pset_QuantityTakeOff.Length"/>
-    <hyperlink ref="R247" r:id="rId201" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M5" r:id="rId1" display="Name"/>
+    <hyperlink ref="M6" r:id="rId2" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M7" r:id="rId3" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M8" r:id="rId4" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M9" r:id="rId5" display="Type"/>
+    <hyperlink ref="M12" r:id="rId6" display="Name"/>
+    <hyperlink ref="M13" r:id="rId7" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M14" r:id="rId8" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M15" r:id="rId9" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M16" r:id="rId10" display="Type"/>
+    <hyperlink ref="M19" r:id="rId11" display="Name"/>
+    <hyperlink ref="M20" r:id="rId12" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M21" r:id="rId13" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M22" r:id="rId14" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M23" r:id="rId15" display="Type"/>
+    <hyperlink ref="M26" r:id="rId16" display="Name"/>
+    <hyperlink ref="M27" r:id="rId17" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M28" r:id="rId18" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
+    <hyperlink ref="M29" r:id="rId19" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M30" r:id="rId20" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M31" r:id="rId21" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M32" r:id="rId22" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M33" r:id="rId23" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M34" r:id="rId24" display="Pset_QuantityTakeOff.VolumetricFlowRate"/>
+    <hyperlink ref="M35" r:id="rId25" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M36" r:id="rId26" display="Tag"/>
+    <hyperlink ref="M37" r:id="rId27" display="Type"/>
+    <hyperlink ref="M40" r:id="rId28" display="Name"/>
+    <hyperlink ref="M41" r:id="rId29" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M42" r:id="rId30" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
+    <hyperlink ref="M43" r:id="rId31" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M44" r:id="rId32" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M45" r:id="rId33" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M46" r:id="rId34" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M47" r:id="rId35" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M48" r:id="rId36" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M49" r:id="rId37" display="Tag"/>
+    <hyperlink ref="M50" r:id="rId38" display="Type"/>
+    <hyperlink ref="M53" r:id="rId39" display="Name"/>
+    <hyperlink ref="M54" r:id="rId40" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M55" r:id="rId41" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M56" r:id="rId42" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M57" r:id="rId43" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M58" r:id="rId44" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M59" r:id="rId45" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M60" r:id="rId46" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M61" r:id="rId47" display="Tag"/>
+    <hyperlink ref="M62" r:id="rId48" display="Type"/>
+    <hyperlink ref="M65" r:id="rId49" display="Name"/>
+    <hyperlink ref="M66" r:id="rId50" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M67" r:id="rId51" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
+    <hyperlink ref="M68" r:id="rId52" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M69" r:id="rId53" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M70" r:id="rId54" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M71" r:id="rId55" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M72" r:id="rId56" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M73" r:id="rId57" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M74" r:id="rId58" display="Tag"/>
+    <hyperlink ref="M75" r:id="rId59" display="Type"/>
+    <hyperlink ref="M78" r:id="rId60" display="Name"/>
+    <hyperlink ref="M79" r:id="rId61" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M80" r:id="rId62" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
+    <hyperlink ref="M81" r:id="rId63" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M82" r:id="rId64" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M83" r:id="rId65" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M84" r:id="rId66" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M85" r:id="rId67" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M86" r:id="rId68" display="Pset_QuantityTakeOff.VolumetricFlowRate"/>
+    <hyperlink ref="M87" r:id="rId69" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M88" r:id="rId70" display="Tag"/>
+    <hyperlink ref="M89" r:id="rId71" display="Type"/>
+    <hyperlink ref="M92" r:id="rId72" display="Name"/>
+    <hyperlink ref="M93" r:id="rId73" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M94" r:id="rId74" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M95" r:id="rId75" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M96" r:id="rId76" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M97" r:id="rId77" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M98" r:id="rId78" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M99" r:id="rId79" display="Tag"/>
+    <hyperlink ref="M100" r:id="rId80" display="Type"/>
+    <hyperlink ref="M103" r:id="rId81" display="Name"/>
+    <hyperlink ref="M104" r:id="rId82" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M105" r:id="rId83" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M106" r:id="rId84" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M107" r:id="rId85" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M108" r:id="rId86" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M109" r:id="rId87" display="Pset_QuantityTakeOff.Weight"/>
+    <hyperlink ref="M110" r:id="rId88" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M111" r:id="rId89" display="Tag"/>
+    <hyperlink ref="M112" r:id="rId90" display="Type"/>
+    <hyperlink ref="M115" r:id="rId91" display="Name"/>
+    <hyperlink ref="M116" r:id="rId92" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M117" r:id="rId93" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M118" r:id="rId94" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M119" r:id="rId95" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M120" r:id="rId96" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M121" r:id="rId97" display="Pset_QuantityTakeOff.Weight"/>
+    <hyperlink ref="M122" r:id="rId98" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M123" r:id="rId99" display="Tag"/>
+    <hyperlink ref="M124" r:id="rId100" display="Type"/>
+    <hyperlink ref="M127" r:id="rId101" display="Name"/>
+    <hyperlink ref="M128" r:id="rId102" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M129" r:id="rId103" display="Pset_ElectricalDeviceCommon.NominalPowerConsumption"/>
+    <hyperlink ref="M130" r:id="rId104" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M131" r:id="rId105" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M132" r:id="rId106" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M133" r:id="rId107" display="Pset_QuantityTakeOff.Volume"/>
+    <hyperlink ref="M134" r:id="rId108" display="Pset_QuantityTakeOff.Weight"/>
+    <hyperlink ref="M135" r:id="rId109" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M136" r:id="rId110" display="Tag"/>
+    <hyperlink ref="M137" r:id="rId111" display="Type"/>
+    <hyperlink ref="M140" r:id="rId112" display="Name"/>
+    <hyperlink ref="M141" r:id="rId113" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M142" r:id="rId114" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M143" r:id="rId115" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M144" r:id="rId116" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M145" r:id="rId117" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M146" r:id="rId118" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M147" r:id="rId119" display="Tag"/>
+    <hyperlink ref="M148" r:id="rId120" display="Type"/>
+    <hyperlink ref="M151" r:id="rId121" display="Name"/>
+    <hyperlink ref="M152" r:id="rId122" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M153" r:id="rId123" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M154" r:id="rId124" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M155" r:id="rId125" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M156" r:id="rId126" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M157" r:id="rId127" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M158" r:id="rId128" display="Tag"/>
+    <hyperlink ref="M159" r:id="rId129" display="Type"/>
+    <hyperlink ref="M162" r:id="rId130" display="Name"/>
+    <hyperlink ref="M163" r:id="rId131" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M164" r:id="rId132" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M165" r:id="rId133" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M166" r:id="rId134" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M167" r:id="rId135" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M168" r:id="rId136" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M169" r:id="rId137" display="Tag"/>
+    <hyperlink ref="M170" r:id="rId138" display="Type"/>
+    <hyperlink ref="M173" r:id="rId139" display="Name"/>
+    <hyperlink ref="M174" r:id="rId140" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M175" r:id="rId141" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M176" r:id="rId142" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M177" r:id="rId143" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M178" r:id="rId144" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M179" r:id="rId145" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M180" r:id="rId146" display="Tag"/>
+    <hyperlink ref="M181" r:id="rId147" display="Type"/>
+    <hyperlink ref="M184" r:id="rId148" display="Name"/>
+    <hyperlink ref="M185" r:id="rId149" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M186" r:id="rId150" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M187" r:id="rId151" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M188" r:id="rId152" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M189" r:id="rId153" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M190" r:id="rId154" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M191" r:id="rId155" display="Tag"/>
+    <hyperlink ref="M192" r:id="rId156" display="Type"/>
+    <hyperlink ref="M195" r:id="rId157" display="Name"/>
+    <hyperlink ref="M196" r:id="rId158" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M197" r:id="rId159" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M198" r:id="rId160" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M199" r:id="rId161" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M200" r:id="rId162" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M201" r:id="rId163" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M202" r:id="rId164" display="Tag"/>
+    <hyperlink ref="M203" r:id="rId165" display="Type"/>
+    <hyperlink ref="M206" r:id="rId166" display="Name"/>
+    <hyperlink ref="M207" r:id="rId167" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M208" r:id="rId168" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M209" r:id="rId169" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M210" r:id="rId170" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M211" r:id="rId171" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M212" r:id="rId172" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M213" r:id="rId173" display="Tag"/>
+    <hyperlink ref="M214" r:id="rId174" display="Type"/>
+    <hyperlink ref="M217" r:id="rId175" display="Name"/>
+    <hyperlink ref="M218" r:id="rId176" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M219" r:id="rId177" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M220" r:id="rId178" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M221" r:id="rId179" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M222" r:id="rId180" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M223" r:id="rId181" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M224" r:id="rId182" display="Tag"/>
+    <hyperlink ref="M225" r:id="rId183" display="Type"/>
+    <hyperlink ref="M228" r:id="rId184" display="Name"/>
+    <hyperlink ref="M229" r:id="rId185" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M230" r:id="rId186" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M231" r:id="rId187" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M232" r:id="rId188" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M233" r:id="rId189" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M234" r:id="rId190" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M235" r:id="rId191" display="Tag"/>
+    <hyperlink ref="M236" r:id="rId192" display="Type"/>
+    <hyperlink ref="M239" r:id="rId193" display="Name"/>
+    <hyperlink ref="M240" r:id="rId194" display="Pset_ConstructionAdministration.SpecificationSectionNumber"/>
+    <hyperlink ref="M241" r:id="rId195" display="Pset_ElementComponentCommon.Status"/>
+    <hyperlink ref="M242" r:id="rId196" display="Pset_QuantityTakeOff.Diameter"/>
+    <hyperlink ref="M243" r:id="rId197" display="Pset_QuantityTakeOff.Height"/>
+    <hyperlink ref="M244" r:id="rId198" display="Pset_QuantityTakeOff.Length"/>
+    <hyperlink ref="M245" r:id="rId199" display="Pset_QuantityTakeOff.Width"/>
+    <hyperlink ref="M246" r:id="rId200" display="Tag"/>
+    <hyperlink ref="M247" r:id="rId201" display="Type"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
